--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1908.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1908.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\csk\year-volumes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBE021A-B46F-414D-85CC-5A2C46B44636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EA31E5-823E-42BE-A81B-201B302DAED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="915" windowWidth="24885" windowHeight="20955" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -214,12 +219,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>чc-м</t>
-  </si>
-  <si>
-    <t>чc-ж</t>
-  </si>
-  <si>
     <t>чс-о</t>
   </si>
   <si>
@@ -239,6 +238,12 @@
   </si>
   <si>
     <t>стр. X, 15, 95</t>
+  </si>
+  <si>
+    <t>чс-м</t>
+  </si>
+  <si>
+    <t>чс-ж</t>
   </si>
 </sst>
 </file>
@@ -248,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,11 +656,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -668,19 +673,19 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.68359375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.83984375" customWidth="1"/>
+    <col min="13" max="13" width="11.578125" customWidth="1"/>
+    <col min="14" max="14" width="10.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -712,31 +717,31 @@
         <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -800,7 +805,7 @@
         <v>-8.1620314389358128E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -864,7 +869,7 @@
         <v>-2.5072046109510637E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -928,7 +933,7 @@
         <v>4.1078130330944873E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -992,7 +997,7 @@
         <v>2.3447238340853715E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1056,7 +1061,7 @@
         <v>-2.6297962130044539E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1120,7 +1125,7 @@
         <v>2.3652126794900141E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1184,7 +1189,7 @@
         <v>-3.2226337974197605E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1247,7 +1252,7 @@
         <v>-5.0934706041729783E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1310,7 +1315,7 @@
         <v>-3.3016080370749989E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1373,7 +1378,7 @@
         <v>7.3561946902671593E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1436,7 +1441,7 @@
         <v>2.5032820458960714E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1499,7 +1504,7 @@
         <v>-3.8859912867398094E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1562,7 +1567,7 @@
         <v>-4.3170085112318901E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1625,7 +1630,7 @@
         <v>-7.8097882679628583E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1688,7 +1693,7 @@
         <v>2.1359077982339159E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1751,7 +1756,7 @@
         <v>-1.4580941446613593E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1814,7 +1819,7 @@
         <v>2.8916012786979195E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1877,7 +1882,7 @@
         <v>-7.7625015208653281E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1940,7 +1945,7 @@
         <v>-3.877354599202576E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2003,7 +2008,7 @@
         <v>4.196748415541407E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2066,7 +2071,7 @@
         <v>-3.7572456177105806E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2129,7 +2134,7 @@
         <v>-2.643750696017122E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2192,7 +2197,7 @@
         <v>2.4874680790691883E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2255,7 +2260,7 @@
         <v>1.5799751464555811E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2318,7 +2323,7 @@
         <v>-2.1253052106601444E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2381,7 +2386,7 @@
         <v>3.4971997510890418E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2444,7 +2449,7 @@
         <v>-4.5144481288488691E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2507,7 +2512,7 @@
         <v>3.395368072787619E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2570,7 +2575,7 @@
         <v>3.424269408240832E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2633,7 +2638,7 @@
         <v>-8.9010926148390013E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2696,7 +2701,7 @@
         <v>1.6155787955284495E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2759,7 +2764,7 @@
         <v>3.6081673417299953E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2822,7 +2827,7 @@
         <v>3.2861956740877218E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2885,7 +2890,7 @@
         <v>2.6411657559215485E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2948,7 +2953,7 @@
         <v>-4.5504721069196563E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3011,7 +3016,7 @@
         <v>-1.367481477159771E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3074,7 +3079,7 @@
         <v>-3.9565011130168415E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3137,7 +3142,7 @@
         <v>-4.8235490884763976E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3200,7 +3205,7 @@
         <v>-4.0122363548547924E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3263,7 +3268,7 @@
         <v>-0.10432679387261246</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3326,7 +3331,7 @@
         <v>-6.5262334469444738E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3389,7 +3394,7 @@
         <v>-2.9532921994693595E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3452,7 +3457,7 @@
         <v>3.1495687806746275E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3515,7 +3520,7 @@
         <v>-3.270425643109931E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3578,7 +3583,7 @@
         <v>-1.3158368434314838E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3641,7 +3646,7 @@
         <v>-7.0061243466845724E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3704,7 +3709,7 @@
         <v>2.7997132787767498E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3767,7 +3772,7 @@
         <v>2.4694727266368233E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3830,7 +3835,7 @@
         <v>2.0556884924950225E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3893,7 +3898,7 @@
         <v>8.5134796761536791E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -3956,14 +3961,14 @@
         <v>-3.8474714733705895E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B54" s="4">
         <f>SUM(B2:B51)</f>
@@ -3994,7 +3999,7 @@
         <v>3191928</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="B55" s="4">
         <f>B52-B54</f>
         <v>0</v>

--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1908.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1908.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EA31E5-823E-42BE-A81B-201B302DAED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2941FE8-BA2C-4209-AABA-D77DA0CF6067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="84735" yWindow="1755" windowWidth="29700" windowHeight="16770" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -673,7 +673,8 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
